--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H2">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I2">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J2">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N2">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q2">
-        <v>1.8109695242454</v>
+        <v>2.161050483568</v>
       </c>
       <c r="R2">
-        <v>1.8109695242454</v>
+        <v>19.449454352112</v>
       </c>
       <c r="S2">
-        <v>0.01494683060468148</v>
+        <v>0.01346343279871963</v>
       </c>
       <c r="T2">
-        <v>0.01494683060468148</v>
+        <v>0.01346343279871963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H3">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I3">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J3">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N3">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q3">
-        <v>19.77198369526203</v>
+        <v>19.93023287252134</v>
       </c>
       <c r="R3">
-        <v>19.77198369526203</v>
+        <v>179.372095852692</v>
       </c>
       <c r="S3">
-        <v>0.1631879979508475</v>
+        <v>0.1241661650120265</v>
       </c>
       <c r="T3">
-        <v>0.1631879979508475</v>
+        <v>0.1241661650120264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H4">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I4">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J4">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N4">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q4">
-        <v>20.80909724821049</v>
+        <v>25.95251645773734</v>
       </c>
       <c r="R4">
-        <v>20.80909724821049</v>
+        <v>233.572648119636</v>
       </c>
       <c r="S4">
-        <v>0.1717478110157301</v>
+        <v>0.1616852377782119</v>
       </c>
       <c r="T4">
-        <v>0.1717478110157301</v>
+        <v>0.1616852377782118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H5">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I5">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J5">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N5">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q5">
-        <v>26.06789618846904</v>
+        <v>26.673538680468</v>
       </c>
       <c r="R5">
-        <v>26.06789618846904</v>
+        <v>240.061848124212</v>
       </c>
       <c r="S5">
-        <v>0.2151512895899349</v>
+        <v>0.1661772356819768</v>
       </c>
       <c r="T5">
-        <v>0.2151512895899349</v>
+        <v>0.1661772356819768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H6">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I6">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J6">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N6">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q6">
-        <v>19.46195224949</v>
+        <v>19.84703364992667</v>
       </c>
       <c r="R6">
-        <v>19.46195224949</v>
+        <v>178.62330284934</v>
       </c>
       <c r="S6">
-        <v>0.1606291545026068</v>
+        <v>0.1236478304562971</v>
       </c>
       <c r="T6">
-        <v>0.1606291545026068</v>
+        <v>0.123647830456297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H7">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I7">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J7">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N7">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q7">
-        <v>18.7703171535369</v>
+        <v>20.15506241087733</v>
       </c>
       <c r="R7">
-        <v>18.7703171535369</v>
+        <v>181.395561697896</v>
       </c>
       <c r="S7">
-        <v>0.1549207466685373</v>
+        <v>0.1255668622210178</v>
       </c>
       <c r="T7">
-        <v>0.1549207466685373</v>
+        <v>0.1255668622210178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H8">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I8">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J8">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N8">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q8">
-        <v>0.1283153584416921</v>
+        <v>0.3207090530173334</v>
       </c>
       <c r="R8">
-        <v>0.1283153584416921</v>
+        <v>2.886381477156001</v>
       </c>
       <c r="S8">
-        <v>0.001059050360003224</v>
+        <v>0.001998030502328157</v>
       </c>
       <c r="T8">
-        <v>0.001059050360003224</v>
+        <v>0.001998030502328157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H9">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I9">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J9">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N9">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q9">
-        <v>1.400934218381165</v>
+        <v>2.957731047730112</v>
       </c>
       <c r="R9">
-        <v>1.400934218381165</v>
+        <v>26.619579429571</v>
       </c>
       <c r="S9">
-        <v>0.01156260564857946</v>
+        <v>0.0184267852604971</v>
       </c>
       <c r="T9">
-        <v>0.01156260564857946</v>
+        <v>0.0184267852604971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H10">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I10">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J10">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N10">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q10">
-        <v>1.474418391090681</v>
+        <v>3.851463461804779</v>
       </c>
       <c r="R10">
-        <v>1.474418391090681</v>
+        <v>34.663171156243</v>
       </c>
       <c r="S10">
-        <v>0.01216910700981687</v>
+        <v>0.02399477471212025</v>
       </c>
       <c r="T10">
-        <v>0.01216910700981687</v>
+        <v>0.02399477471212025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H11">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I11">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J11">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N11">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q11">
-        <v>1.847028013703319</v>
+        <v>3.958466216259001</v>
       </c>
       <c r="R11">
-        <v>1.847028013703319</v>
+        <v>35.626195946331</v>
       </c>
       <c r="S11">
-        <v>0.01524443922071425</v>
+        <v>0.02466140624378802</v>
       </c>
       <c r="T11">
-        <v>0.01524443922071425</v>
+        <v>0.02466140624378802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H12">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I12">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J12">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N12">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q12">
-        <v>1.378967092176206</v>
+        <v>2.94538393039389</v>
       </c>
       <c r="R12">
-        <v>1.378967092176206</v>
+        <v>26.508455373545</v>
       </c>
       <c r="S12">
-        <v>0.01138130004963848</v>
+        <v>0.01834986221507168</v>
       </c>
       <c r="T12">
-        <v>0.01138130004963848</v>
+        <v>0.01834986221507168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H13">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I13">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J13">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N13">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q13">
-        <v>1.329961626286295</v>
+        <v>2.991096704333112</v>
       </c>
       <c r="R13">
-        <v>1.329961626286295</v>
+        <v>26.91987033899801</v>
       </c>
       <c r="S13">
-        <v>0.01097683360911944</v>
+        <v>0.0186346546642317</v>
       </c>
       <c r="T13">
-        <v>0.01097683360911944</v>
+        <v>0.0186346546642317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.322211364136063</v>
+        <v>0.4247756666666667</v>
       </c>
       <c r="H14">
-        <v>0.322211364136063</v>
+        <v>1.274327</v>
       </c>
       <c r="I14">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="J14">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N14">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q14">
-        <v>0.1172706227233675</v>
+        <v>0.1839397573853333</v>
       </c>
       <c r="R14">
-        <v>0.1172706227233675</v>
+        <v>1.655457816468</v>
       </c>
       <c r="S14">
-        <v>0.0009678926725628118</v>
+        <v>0.00114595220306074</v>
       </c>
       <c r="T14">
-        <v>0.0009678926725628118</v>
+        <v>0.00114595220306074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.322211364136063</v>
+        <v>0.4247756666666667</v>
       </c>
       <c r="H15">
-        <v>0.322211364136063</v>
+        <v>1.274327</v>
       </c>
       <c r="I15">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="J15">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N15">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q15">
-        <v>1.280348901169829</v>
+        <v>1.696379713051444</v>
       </c>
       <c r="R15">
-        <v>1.280348901169829</v>
+        <v>15.267417417463</v>
       </c>
       <c r="S15">
-        <v>0.01056735515670791</v>
+        <v>0.01056851491505693</v>
       </c>
       <c r="T15">
-        <v>0.01056735515670791</v>
+        <v>0.01056851491505693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.322211364136063</v>
+        <v>0.4247756666666667</v>
       </c>
       <c r="H16">
-        <v>0.322211364136063</v>
+        <v>1.274327</v>
       </c>
       <c r="I16">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="J16">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N16">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q16">
-        <v>1.347507928729825</v>
+        <v>2.208971801942111</v>
       </c>
       <c r="R16">
-        <v>1.347507928729825</v>
+        <v>19.880746217479</v>
       </c>
       <c r="S16">
-        <v>0.01112165195468008</v>
+        <v>0.01376198456993538</v>
       </c>
       <c r="T16">
-        <v>0.01112165195468008</v>
+        <v>0.01376198456993538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.322211364136063</v>
+        <v>0.4247756666666667</v>
       </c>
       <c r="H17">
-        <v>0.322211364136063</v>
+        <v>1.274327</v>
       </c>
       <c r="I17">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="J17">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N17">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q17">
-        <v>1.688045203512555</v>
+        <v>2.270342257527</v>
       </c>
       <c r="R17">
-        <v>1.688045203512555</v>
+        <v>20.433080317743</v>
       </c>
       <c r="S17">
-        <v>0.01393227515546432</v>
+        <v>0.01414432501541622</v>
       </c>
       <c r="T17">
-        <v>0.01393227515546432</v>
+        <v>0.01414432501541621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.322211364136063</v>
+        <v>0.4247756666666667</v>
       </c>
       <c r="H18">
-        <v>0.322211364136063</v>
+        <v>1.274327</v>
       </c>
       <c r="I18">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="J18">
-        <v>0.05702283376979018</v>
+        <v>0.06083290962515873</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N18">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q18">
-        <v>1.260272593853359</v>
+        <v>1.689298136320556</v>
       </c>
       <c r="R18">
-        <v>1.260272593853359</v>
+        <v>15.203683226885</v>
       </c>
       <c r="S18">
-        <v>0.01040165542481881</v>
+        <v>0.01052439640271756</v>
       </c>
       <c r="T18">
-        <v>0.01040165542481881</v>
+        <v>0.01052439640271756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.274327</v>
+      </c>
+      <c r="I19">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J19">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N19">
+        <v>12.115922</v>
+      </c>
+      <c r="O19">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P19">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q19">
+        <v>1.715516281610445</v>
+      </c>
+      <c r="R19">
+        <v>15.439646534494</v>
+      </c>
+      <c r="S19">
+        <v>0.0106877365189719</v>
+      </c>
+      <c r="T19">
+        <v>0.0106877365189719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.104601</v>
+      </c>
+      <c r="I20">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J20">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.433028</v>
+      </c>
+      <c r="N20">
+        <v>1.299084</v>
+      </c>
+      <c r="O20">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="P20">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="Q20">
+        <v>0.1594410539426667</v>
+      </c>
+      <c r="R20">
+        <v>1.434969485484</v>
+      </c>
+      <c r="S20">
+        <v>0.0009933242797595095</v>
+      </c>
+      <c r="T20">
+        <v>0.0009933242797595097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.104601</v>
+      </c>
+      <c r="I21">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J21">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N21">
+        <v>11.980769</v>
+      </c>
+      <c r="O21">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="P21">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="Q21">
+        <v>1.470441046463222</v>
+      </c>
+      <c r="R21">
+        <v>13.233969418169</v>
+      </c>
+      <c r="S21">
+        <v>0.009160907791867238</v>
+      </c>
+      <c r="T21">
+        <v>0.00916090779186724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.104601</v>
+      </c>
+      <c r="I22">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J22">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.200325666666667</v>
+      </c>
+      <c r="N22">
+        <v>15.600977</v>
+      </c>
+      <c r="O22">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="P22">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="Q22">
+        <v>1.914761643908556</v>
+      </c>
+      <c r="R22">
+        <v>17.232854795177</v>
+      </c>
+      <c r="S22">
+        <v>0.01192904326592405</v>
+      </c>
+      <c r="T22">
+        <v>0.01192904326592405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.104601</v>
+      </c>
+      <c r="I23">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J23">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.344803</v>
+      </c>
+      <c r="N23">
+        <v>16.034409</v>
+      </c>
+      <c r="O23">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="P23">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="Q23">
+        <v>1.967958246201</v>
+      </c>
+      <c r="R23">
+        <v>17.711624215809</v>
+      </c>
+      <c r="S23">
+        <v>0.01226046027146389</v>
+      </c>
+      <c r="T23">
+        <v>0.01226046027146389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.104601</v>
+      </c>
+      <c r="I24">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J24">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.976918333333334</v>
+      </c>
+      <c r="N24">
+        <v>11.930755</v>
+      </c>
+      <c r="O24">
+        <v>0.1730049814741227</v>
+      </c>
+      <c r="P24">
+        <v>0.1730049814741226</v>
+      </c>
+      <c r="Q24">
+        <v>1.464302655972778</v>
+      </c>
+      <c r="R24">
+        <v>13.178723903755</v>
+      </c>
+      <c r="S24">
+        <v>0.009122665368338128</v>
+      </c>
+      <c r="T24">
+        <v>0.009122665368338128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.104601</v>
+      </c>
+      <c r="I25">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J25">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N25">
+        <v>12.115922</v>
+      </c>
+      <c r="O25">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P25">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q25">
+        <v>1.487028839680222</v>
+      </c>
+      <c r="R25">
+        <v>13.383259557122</v>
+      </c>
+      <c r="S25">
+        <v>0.009264250421275603</v>
+      </c>
+      <c r="T25">
+        <v>0.009264250421275605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.375532</v>
+      </c>
+      <c r="I26">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J26">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.433028</v>
+      </c>
+      <c r="N26">
+        <v>1.299084</v>
+      </c>
+      <c r="O26">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="P26">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="Q26">
+        <v>0.1985479569653333</v>
+      </c>
+      <c r="R26">
+        <v>1.786931612688</v>
+      </c>
+      <c r="S26">
+        <v>0.00123696188323762</v>
+      </c>
+      <c r="T26">
+        <v>0.00123696188323762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.375532</v>
+      </c>
+      <c r="I27">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J27">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N27">
+        <v>11.980769</v>
+      </c>
+      <c r="O27">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="P27">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="Q27">
+        <v>1.831103460456444</v>
+      </c>
+      <c r="R27">
+        <v>16.479931144108</v>
+      </c>
+      <c r="S27">
+        <v>0.0114078493653027</v>
+      </c>
+      <c r="T27">
+        <v>0.0114078493653027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.375532</v>
+      </c>
+      <c r="I28">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J28">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.200325666666667</v>
+      </c>
+      <c r="N28">
+        <v>15.600977</v>
+      </c>
+      <c r="O28">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="P28">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="Q28">
+        <v>2.384404788307112</v>
+      </c>
+      <c r="R28">
+        <v>21.459643094764</v>
+      </c>
+      <c r="S28">
+        <v>0.01485493924200959</v>
+      </c>
+      <c r="T28">
+        <v>0.01485493924200959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.322211364136063</v>
-      </c>
-      <c r="H19">
-        <v>0.322211364136063</v>
-      </c>
-      <c r="I19">
-        <v>0.05702283376979018</v>
-      </c>
-      <c r="J19">
-        <v>0.05702283376979018</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="N19">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="O19">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="P19">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="Q19">
-        <v>1.215485270094528</v>
-      </c>
-      <c r="R19">
-        <v>1.215485270094528</v>
-      </c>
-      <c r="S19">
-        <v>0.01003200340555624</v>
-      </c>
-      <c r="T19">
-        <v>0.01003200340555624</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.375532</v>
+      </c>
+      <c r="I29">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J29">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.344803</v>
+      </c>
+      <c r="N29">
+        <v>16.034409</v>
+      </c>
+      <c r="O29">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="P29">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="Q29">
+        <v>2.450649186732</v>
+      </c>
+      <c r="R29">
+        <v>22.055842680588</v>
+      </c>
+      <c r="S29">
+        <v>0.01526764455050038</v>
+      </c>
+      <c r="T29">
+        <v>0.01526764455050038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.375532</v>
+      </c>
+      <c r="I30">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J30">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.976918333333334</v>
+      </c>
+      <c r="N30">
+        <v>11.930755</v>
+      </c>
+      <c r="O30">
+        <v>0.1730049814741227</v>
+      </c>
+      <c r="P30">
+        <v>0.1730049814741226</v>
+      </c>
+      <c r="Q30">
+        <v>1.823459476295556</v>
+      </c>
+      <c r="R30">
+        <v>16.41113528666</v>
+      </c>
+      <c r="S30">
+        <v>0.01136022703169822</v>
+      </c>
+      <c r="T30">
+        <v>0.01136022703169822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.375532</v>
+      </c>
+      <c r="I31">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J31">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N31">
+        <v>12.115922</v>
+      </c>
+      <c r="O31">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P31">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q31">
+        <v>1.851759824500445</v>
+      </c>
+      <c r="R31">
+        <v>16.665838420504</v>
+      </c>
+      <c r="S31">
+        <v>0.01153653935717791</v>
+      </c>
+      <c r="T31">
+        <v>0.01153653935717791</v>
       </c>
     </row>
   </sheetData>
